--- a/medicine/Psychotrope/Alvarinho/Alvarinho.xlsx
+++ b/medicine/Psychotrope/Alvarinho/Alvarinho.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Alvarinho, en portugais, ou Albariño, en galicien, est une variété de cépage blanc de Galice (nord-ouest de l'Espagne, région Rias Baixas) et du nord du Portugal (région du Vinho verde) qui est utilisée pour faire du vin blanc.
@@ -513,9 +525,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce cépage produit des vins de très bonne qualité. Précoce au débourrement et à la maturation, il est très sensible aux forts refroidissements printaniers et aux amplitudes thermiques diurnes trop importantes[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cépage produit des vins de très bonne qualité. Précoce au débourrement et à la maturation, il est très sensible aux forts refroidissements printaniers et aux amplitudes thermiques diurnes trop importantes. 
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce cépage est aussi connu sous les noms de : Alvariño, Albariña, Albarinyo, Alvarin blanc, Alvarinha, Azal blanc, Cainho blanc, Galego et Galeguinho.
 </t>
